--- a/watch_eagle/ru/ru.xlsx
+++ b/watch_eagle/ru/ru.xlsx
@@ -883,7 +883,7 @@
 				&lt;/div&gt;
 			&lt;/div&gt;
 			&lt;div class="intro__offer"&gt;
-				&lt;form method="POST" class="form"&gt;
+				&lt;form method="POST" class="form" action="order.php"&gt;
 					&lt;input type="text" name="name" required placeholder="Имя" data-placeholder="85" data-placeholder-translate="Имя"&gt;
 					&lt;input type="text" name="phone" required placeholder="Телефон" data-placeholder="86" data-placeholder-translate="Телефон"&gt;
 					&lt;button class="btn"&gt;&lt;span&gt;&lt;span data-translate="17"&gt;ЗАКАЗАТЬ&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;
@@ -899,12 +899,12 @@
 				&lt;h2 class="t-white"&gt;&lt;span data-translate="19"&gt;Почему мужчины выбирают часы &lt;/span&gt;&lt;b class="offer"&gt;&lt;span data-translate="20"&gt;watch eagle?&lt;/span&gt;&lt;/b&gt;&lt;/h2&gt;
 				&lt;img src="img/pic_1.png" alt&gt;
 				&lt;p&gt;&lt;/p&gt;
-				&lt;h2 class="upp </v>
+</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">t-white"&gt;&lt;span data-translate="21"&gt;КРЕАТИВНЫЙ ДИЗАЙН&lt;/span&gt;&lt;/h2&gt;
+        <v xml:space="preserve">				&lt;h2 class="upp t-white"&gt;&lt;span data-translate="21"&gt;КРЕАТИВНЫЙ ДИЗАЙН&lt;/span&gt;&lt;/h2&gt;
 				&lt;p&gt;&lt;span data-translate="22"&gt;Watch Eagle - это часы с удивительной красоты скелетонизированным циферблатом и магнитным сетчатым ремешком, а стрелки выполнены из люминесцентного материала. Они прекрасно подойдут как для любых мероприятий, так и для повседневной жизни. &lt;/span&gt;&lt;/p&gt;
 				&lt;img src="img/pic_2.png" alt&gt;
 				&lt;p&gt;&lt;/p&gt;
@@ -937,12 +937,12 @@
 				&lt;h3&gt;&lt;span data-translate="46"&gt;РЕМЕШОК&lt;/span&gt;&lt;/h3&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="47"&gt;Длина:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="48"&gt;240 мм&lt;/span&gt;&lt;/p&gt;
 				&lt;p class="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="49"&gt;Ширина:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="50"&gt;20 мм&lt;/span&gt;&lt;/p&gt;
-				&lt;p class="sect2__item no-p</v>
+				&lt;p clas</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">ad"&gt;&lt;b&gt;&lt;span data-translate="51"&gt;Материал:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="52"&gt;нержавеющая сталь&lt;/span&gt;&lt;/p&gt;
+        <v xml:space="preserve">s="sect2__item no-pad"&gt;&lt;b&gt;&lt;span data-translate="51"&gt;Материал:&lt;/span&gt;&lt;/b&gt;&lt;span data-translate="52"&gt;нержавеющая сталь&lt;/span&gt;&lt;/p&gt;
 			&lt;/div&gt;
 		&lt;/section&gt;
 		&lt;section class="sect3 video"&gt;
@@ -996,12 +996,12 @@
 						&lt;p&gt;&lt;span data-translate="64"&gt;Наш менеджер перезвонит вам для оформления заказа&lt;/span&gt;&lt;/p&gt;
 					&lt;/div&gt;
 					&lt;div class="sect5__item"&gt;
-						&lt;img src="img/icon_3</v>
+						&lt;</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">.svg" alt&gt;
+        <v xml:space="preserve">img src="img/icon_3.svg" alt&gt;
 						&lt;p&gt;&lt;span data-translate="65"&gt;Доставка курьером в течении 3-7 дней&lt;/span&gt;&lt;/p&gt;
 					&lt;/div&gt;
 					&lt;div class="sect5__item"&gt;
@@ -1042,7 +1042,7 @@
 				&lt;/div&gt;
 			&lt;/div&gt;
 			&lt;div class="intro__offer"&gt;
-				&lt;form method="POST" class="form"&gt;
+				&lt;form method="POST" class="form" action="order.php"&gt;
 					&lt;input type="text" name="name" required placeholder="Имя" data-placeholder="87" data-placeholder-translate="Имя"&gt;
 					&lt;input type="text" name="phone" required placeholder="Телефон" data-placeholder="88" data-placeholder-translate="Телефон"&gt;
 					&lt;button class="btn"&gt;&lt;span&gt;&lt;span data-translate="82"&gt;ЗАКАЗАТЬ&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;
